--- a/Suveys/e-s1_User_Surveys_n_results.xlsx
+++ b/Suveys/e-s1_User_Surveys_n_results.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="220" windowWidth="25360" windowHeight="15280" tabRatio="704" activeTab="2"/>
+    <workbookView xWindow="560" yWindow="580" windowWidth="25040" windowHeight="14960" tabRatio="704" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Users_Survey" sheetId="21" r:id="rId1"/>
-    <sheet name="Model_User_View" sheetId="20" r:id="rId2"/>
-    <sheet name="Providers_Survey" sheetId="19" r:id="rId3"/>
-    <sheet name="Model_Provider_View" sheetId="12" r:id="rId4"/>
+    <sheet name="Model_User_View" sheetId="20" r:id="rId1"/>
+    <sheet name="Users_Survey" sheetId="21" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="22" r:id="rId3"/>
+    <sheet name="Providers_Survey" sheetId="19" r:id="rId4"/>
+    <sheet name="Model_Provider_View" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="97">
   <si>
     <t>ACCESSIBILITY</t>
   </si>
@@ -307,6 +308,12 @@
   </si>
   <si>
     <t>Does service provider take responsibility for any problems caused by serivce interactions with external third parties?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>6.5</t>
   </si>
 </sst>
 </file>
@@ -397,7 +404,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +429,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -860,7 +873,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="392">
+  <cellStyleXfs count="418">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1253,8 +1266,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1368,39 +1407,96 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="19" xfId="359" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1415,7 +1511,19 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1451,191 +1559,131 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="19" xfId="359" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="20" xfId="359" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="19" xfId="359" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="20" xfId="359" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="392">
+  <cellStyles count="418">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1831,6 +1879,19 @@
     <cellStyle name="Followed Hyperlink" xfId="387" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2026,6 +2087,19 @@
     <cellStyle name="Hyperlink" xfId="386" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="388" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="359" builtinId="5"/>
   </cellStyles>
@@ -3017,502 +3091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="4" style="1" customWidth="1"/>
-    <col min="3" max="3" width="85.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.83203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="104"/>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="104"/>
-      <c r="B2" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="104"/>
-    </row>
-    <row r="3" spans="1:7" ht="38" customHeight="1">
-      <c r="A3" s="104"/>
-      <c r="B3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="104"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="104"/>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="10">
-        <f t="shared" ref="E4:E6" si="0">IF(D4="YES",0.5,0)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="104"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="104"/>
-      <c r="B5" s="5">
-        <f>B4+1</f>
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="10">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="104"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="104"/>
-      <c r="B6" s="5">
-        <f t="shared" ref="B6:B22" si="1">B5+1</f>
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="10">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="104"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="104"/>
-      <c r="B7" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="10">
-        <f>IF(D7="YES",0.5,0)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="104"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="104"/>
-      <c r="B8" s="5">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="10">
-        <f>IF(D8="NO",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="104"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="104"/>
-      <c r="B9" s="5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="10">
-        <f>IF(D9="YES",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="104"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="5">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="10">
-        <f>IF(D10="YES",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="104"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="104"/>
-      <c r="B11" s="5">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="10">
-        <f>IF(D11="YES",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="104"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="104"/>
-      <c r="B12" s="5">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="10">
-        <f>IF(D12="NO",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="104"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="104"/>
-      <c r="B13" s="5">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="10">
-        <f>IF(D13="YES",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="104"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="104"/>
-      <c r="B14" s="5">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="10">
-        <f>IF(D14="YES",0.5,0)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="104"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="104"/>
-      <c r="B15" s="5">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="10">
-        <f>IF(D15="YES",0.5,0)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="104"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="104"/>
-      <c r="B16" s="5">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="10">
-        <f>IF(D16="YES",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="104"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="104"/>
-      <c r="B17" s="5">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="10">
-        <f>IF(D17="YES",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="104"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="104"/>
-      <c r="B18" s="5">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="10">
-        <f>IF(D18="YES",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="104"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="104"/>
-      <c r="B19" s="5">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="10">
-        <f>IF(D19="YES",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="104"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="104"/>
-      <c r="B20" s="5">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="10">
-        <f>IF(D20="YES",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="104"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="104"/>
-      <c r="B21" s="5">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="10">
-        <f>IF(D21="NO",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="104"/>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="104"/>
-      <c r="B22" s="5">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="10">
-        <f>IF(D22="NO",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="104"/>
-    </row>
-    <row r="23" spans="1:7" ht="5" customHeight="1">
-      <c r="A23" s="104"/>
-      <c r="G23" s="104"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="104"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G2:G24"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A2:A23"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <ignoredErrors>
-    <ignoredError sqref="E4:E11 E13:E18 E19:E22" emptyCellReference="1"/>
-    <ignoredError sqref="E12" formula="1"/>
-  </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3554,166 +3136,165 @@
     </row>
     <row r="3" spans="2:16" ht="22" customHeight="1">
       <c r="B3" s="23"/>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="99">
+      <c r="E3" s="59"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="60">
         <f>E10/4</f>
-        <v>5</v>
-      </c>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99">
+        <v>4.5</v>
+      </c>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60">
         <f>E14/2</f>
         <v>3</v>
       </c>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99">
+      <c r="J3" s="60"/>
+      <c r="K3" s="60">
         <f>E17/4</f>
         <v>2</v>
       </c>
-      <c r="L3" s="99"/>
-      <c r="M3" s="100">
+      <c r="L3" s="60"/>
+      <c r="M3" s="61">
         <f>E22/3</f>
         <v>3</v>
       </c>
-      <c r="N3" s="101"/>
-      <c r="O3" s="93" t="s">
+      <c r="N3" s="62"/>
+      <c r="O3" s="53" t="s">
         <v>89</v>
       </c>
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="2:16" ht="22" customHeight="1">
       <c r="B4" s="23"/>
-      <c r="C4" s="65"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="96"/>
-      <c r="G4" s="61" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61" t="s">
+      <c r="H4" s="57"/>
+      <c r="I4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61" t="s">
+      <c r="J4" s="57"/>
+      <c r="K4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="102" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="103"/>
-      <c r="O4" s="94"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="54"/>
       <c r="P4" s="24"/>
     </row>
     <row r="5" spans="2:16" ht="20" customHeight="1">
       <c r="B5" s="23"/>
-      <c r="C5" s="62">
+      <c r="C5" s="81">
         <f>(G5+K5+G6+K6+M7+I5)/O5</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="90" t="s">
+        <v>0.95</v>
+      </c>
+      <c r="D5" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="85"/>
-      <c r="G5" s="59">
+      <c r="F5" s="69"/>
+      <c r="G5" s="70">
         <f>G3</f>
-        <v>5</v>
-      </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="86">
+        <v>4.5</v>
+      </c>
+      <c r="H5" s="70"/>
+      <c r="I5" s="71">
         <f>I3</f>
         <v>3</v>
       </c>
-      <c r="J5" s="86"/>
-      <c r="K5" s="59">
+      <c r="J5" s="71"/>
+      <c r="K5" s="70">
         <f>K3</f>
         <v>2</v>
       </c>
-      <c r="L5" s="59"/>
-      <c r="M5" s="78">
+      <c r="L5" s="70"/>
+      <c r="M5" s="72">
         <v>0</v>
       </c>
-      <c r="N5" s="79"/>
-      <c r="O5" s="82">
-        <f>(G5+K5+G6+K6+M7+I5)</f>
+      <c r="N5" s="73"/>
+      <c r="O5" s="76">
         <v>20</v>
       </c>
       <c r="P5" s="24"/>
     </row>
     <row r="6" spans="2:16" ht="20" customHeight="1">
       <c r="B6" s="23"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="84" t="s">
+      <c r="C6" s="81"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="86">
+      <c r="F6" s="69"/>
+      <c r="G6" s="71">
         <f>G3</f>
-        <v>5</v>
-      </c>
-      <c r="H6" s="86" t="str">
+        <v>4.5</v>
+      </c>
+      <c r="H6" s="71" t="str">
         <f>$D$9</f>
         <v>Dimension</v>
       </c>
-      <c r="I6" s="87">
+      <c r="I6" s="78">
         <v>0</v>
       </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="59">
+      <c r="J6" s="78"/>
+      <c r="K6" s="70">
         <f>K3</f>
         <v>2</v>
       </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="88">
+      <c r="L6" s="70"/>
+      <c r="M6" s="79">
         <v>0</v>
       </c>
-      <c r="N6" s="89"/>
-      <c r="O6" s="82"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="76"/>
       <c r="P6" s="24"/>
     </row>
     <row r="7" spans="2:16" ht="20" customHeight="1" thickBot="1">
       <c r="B7" s="23"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="84" t="s">
+      <c r="C7" s="82"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="87">
+      <c r="F7" s="69"/>
+      <c r="G7" s="78">
         <v>0</v>
       </c>
-      <c r="H7" s="87">
+      <c r="H7" s="78">
         <v>0</v>
       </c>
-      <c r="I7" s="87">
+      <c r="I7" s="78">
         <v>0</v>
       </c>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87">
+      <c r="J7" s="78"/>
+      <c r="K7" s="78">
         <v>0</v>
       </c>
-      <c r="L7" s="87"/>
-      <c r="M7" s="80">
+      <c r="L7" s="78"/>
+      <c r="M7" s="74">
         <f>M3</f>
         <v>3</v>
       </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="83"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="77"/>
       <c r="P7" s="24"/>
     </row>
     <row r="8" spans="2:16">
@@ -3762,15 +3343,15 @@
     </row>
     <row r="10" spans="2:16" ht="20" customHeight="1">
       <c r="B10" s="23"/>
-      <c r="C10" s="56">
+      <c r="C10" s="87">
         <v>20</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="87">
         <f>G10+G11+G12+I11+I12</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>9</v>
@@ -3791,22 +3372,22 @@
     </row>
     <row r="11" spans="2:16" ht="36" customHeight="1">
       <c r="B11" s="23"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="59" t="s">
+      <c r="C11" s="88"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="70" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="45">
         <f>Users_Survey!E6+Users_Survey!E7</f>
         <v>1</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="70" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="45">
         <f>Users_Survey!E8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="26"/>
       <c r="K11" s="25"/>
@@ -3818,15 +3399,15 @@
     </row>
     <row r="12" spans="2:16" ht="25" customHeight="1">
       <c r="B12" s="23"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="59"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="46">
         <f>I11+I12</f>
-        <v>9</v>
-      </c>
-      <c r="H12" s="59"/>
+        <v>8</v>
+      </c>
+      <c r="H12" s="70"/>
       <c r="I12" s="46">
         <f>G14+G15+G17+G18+G19</f>
         <v>8</v>
@@ -3858,24 +3439,24 @@
     </row>
     <row r="14" spans="2:16" ht="20" customHeight="1">
       <c r="B14" s="23"/>
-      <c r="C14" s="56">
+      <c r="C14" s="87">
         <v>6</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="87">
         <f>G14+G15+I14+I15+K15</f>
         <v>6</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="70" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="45">
         <f>Users_Survey!E9</f>
         <v>1</v>
       </c>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="70" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="45">
@@ -3892,15 +3473,15 @@
     </row>
     <row r="15" spans="2:16" ht="34" customHeight="1">
       <c r="B15" s="23"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="46">
         <f>I14+I15</f>
         <v>2</v>
       </c>
-      <c r="H15" s="59"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="46">
         <f>K15</f>
         <v>1</v>
@@ -3937,13 +3518,13 @@
     </row>
     <row r="17" spans="2:16" ht="20" customHeight="1">
       <c r="B17" s="23"/>
-      <c r="C17" s="56">
+      <c r="C17" s="87">
         <v>8</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="87">
         <f>G17+G18+G19+I19+M19+M20</f>
         <v>8</v>
       </c>
@@ -3966,10 +3547,10 @@
     </row>
     <row r="18" spans="2:16" ht="20" customHeight="1">
       <c r="B18" s="23"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="67" t="s">
+      <c r="C18" s="88"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="90" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="45">
@@ -3988,28 +3569,28 @@
     </row>
     <row r="19" spans="2:16" ht="20" customHeight="1">
       <c r="B19" s="23"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="73">
+      <c r="C19" s="88"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="96">
         <f>I19+M19+M20</f>
         <v>3</v>
       </c>
-      <c r="H19" s="75" t="s">
+      <c r="H19" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="54">
+      <c r="I19" s="103">
         <f>Users_Survey!E14+Users_Survey!E15</f>
         <v>1</v>
       </c>
-      <c r="J19" s="77" t="s">
+      <c r="J19" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="59" t="s">
+      <c r="K19" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="59"/>
+      <c r="L19" s="70"/>
       <c r="M19" s="45">
         <f>Users_Survey!E16</f>
         <v>1</v>
@@ -4020,18 +3601,18 @@
     </row>
     <row r="20" spans="2:16" ht="20" customHeight="1">
       <c r="B20" s="23"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="59" t="s">
+      <c r="C20" s="89"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="59"/>
+      <c r="L20" s="70"/>
       <c r="M20" s="45">
         <f>Users_Survey!E17</f>
         <v>1</v>
@@ -4059,17 +3640,17 @@
     </row>
     <row r="22" spans="2:16" ht="20" customHeight="1">
       <c r="B22" s="23"/>
-      <c r="C22" s="56">
+      <c r="C22" s="87">
         <v>9</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="56">
+      <c r="E22" s="87">
         <f>G23+G22+I22+I23+I24+I25</f>
         <v>9</v>
       </c>
-      <c r="F22" s="67" t="s">
+      <c r="F22" s="90" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="45">
@@ -4093,11 +3674,11 @@
     </row>
     <row r="23" spans="2:16" ht="20" customHeight="1">
       <c r="B23" s="23"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="70">
+      <c r="C23" s="88"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="93">
         <f>I22+I23+I24+I25</f>
         <v>4</v>
       </c>
@@ -4118,11 +3699,11 @@
     </row>
     <row r="24" spans="2:16" ht="20" customHeight="1">
       <c r="B24" s="23"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="71"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="94"/>
       <c r="H24" s="9" t="s">
         <v>21</v>
       </c>
@@ -4140,11 +3721,11 @@
     </row>
     <row r="25" spans="2:16" ht="20" customHeight="1">
       <c r="B25" s="23"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="72"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="95"/>
       <c r="H25" s="9" t="s">
         <v>22</v>
       </c>
@@ -4185,11 +3766,11 @@
       <c r="D27" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="101">
         <f>G10+G17+M7+G22+I24+I25</f>
         <v>8</v>
       </c>
-      <c r="F27" s="53"/>
+      <c r="F27" s="102"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
@@ -4220,34 +3801,18 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="K19:L19"/>
@@ -4264,18 +3829,34 @@
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <conditionalFormatting sqref="I11">
     <cfRule type="cellIs" dxfId="65" priority="41" operator="equal">
@@ -4420,12 +4001,646 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="4" style="1" customWidth="1"/>
+    <col min="3" max="3" width="85.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="52"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+    </row>
+    <row r="2" spans="1:9" ht="18" customHeight="1">
+      <c r="A2" s="52"/>
+      <c r="B2" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+    </row>
+    <row r="3" spans="1:9" ht="38" customHeight="1">
+      <c r="A3" s="52"/>
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="52"/>
+    </row>
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="52"/>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="140" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" ref="E4:E6" si="0">IF(D4="YES",0.5,0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="52"/>
+      <c r="I4" s="139" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="52"/>
+      <c r="B5" s="5">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="52"/>
+      <c r="I5" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="52"/>
+      <c r="B6" s="5">
+        <f t="shared" ref="B6:B22" si="1">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="52"/>
+      <c r="I6" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="52"/>
+      <c r="B7" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="10">
+        <f>IF(D7="YES",0.5,0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="52"/>
+      <c r="I7" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="52"/>
+      <c r="B8" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="10">
+        <f>IF(D8="NO",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="52"/>
+      <c r="I8" s="50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="52"/>
+      <c r="B9" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="10">
+        <f>IF(D9="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="52"/>
+      <c r="I9" s="139" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="52"/>
+      <c r="B10" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="140" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="10">
+        <f>IF(D10="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="52"/>
+      <c r="I10" s="139" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="52"/>
+      <c r="B11" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="140" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="10">
+        <f>IF(D11="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="52"/>
+      <c r="I11" s="139" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="52"/>
+      <c r="B12" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="10">
+        <f>IF(D12="NO",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="52"/>
+      <c r="I12" s="50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="52"/>
+      <c r="B13" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="10">
+        <f>IF(D13="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="I13" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="52"/>
+      <c r="B14" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="141" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="10">
+        <f>IF(D14="YES",0.5,0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="52"/>
+      <c r="I14" s="139" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="52"/>
+      <c r="B15" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="140" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="10">
+        <f>IF(D15="YES",0.5,0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="52"/>
+      <c r="I15" s="139" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="52"/>
+      <c r="B16" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="10">
+        <f>IF(D16="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="52"/>
+      <c r="I16" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="52"/>
+      <c r="B17" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="140" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="10">
+        <f>IF(D17="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="52"/>
+      <c r="I17" s="139" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="52"/>
+      <c r="B18" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="10">
+        <f>IF(D18="NO",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="52"/>
+      <c r="I18" s="50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="52"/>
+      <c r="B19" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="140" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="10">
+        <f>IF(D19="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="52"/>
+      <c r="I19" s="139" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="52"/>
+      <c r="B20" s="5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="140" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="10">
+        <f>IF(D20="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="52"/>
+      <c r="I20" s="139" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="52"/>
+      <c r="B21" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="140" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="139" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="10">
+        <f>IF(D21="NO",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="52"/>
+      <c r="I21" s="139" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="52"/>
+      <c r="B22" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="139" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="10">
+        <f>IF(D22="NO",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="52"/>
+      <c r="I22" s="139" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="5" customHeight="1">
+      <c r="A23" s="52"/>
+      <c r="G23" s="52"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G2:G24"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A2:A23"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="E4:E11 E13:E17 E19:E22" emptyCellReference="1"/>
+    <ignoredError sqref="E12" formula="1"/>
+  </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D4:D28"/>
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>95</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4439,28 +4654,28 @@
     <col min="7" max="7" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="104"/>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-    </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1">
-      <c r="A2" s="104"/>
-      <c r="B2" s="138" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="52"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+    </row>
+    <row r="2" spans="1:9" ht="24" customHeight="1">
+      <c r="A2" s="52"/>
+      <c r="B2" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="104"/>
-    </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="52"/>
+    </row>
+    <row r="3" spans="1:9" ht="30">
+      <c r="A3" s="52"/>
       <c r="B3" s="15" t="s">
         <v>28</v>
       </c>
@@ -4476,10 +4691,10 @@
       <c r="F3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="104"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A4" s="104"/>
+      <c r="G3" s="52"/>
+    </row>
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A4" s="52"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -4496,10 +4711,13 @@
       <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="104"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A5" s="104"/>
+      <c r="G4" s="52"/>
+      <c r="I4" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A5" s="52"/>
       <c r="B5" s="5">
         <f>B4+1</f>
         <v>2</v>
@@ -4517,10 +4735,13 @@
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="104"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A6" s="104"/>
+      <c r="G5" s="52"/>
+      <c r="I5" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A6" s="52"/>
       <c r="B6" s="5">
         <f t="shared" ref="B6:B28" si="0">B5+1</f>
         <v>3</v>
@@ -4538,10 +4759,13 @@
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="104"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A7" s="104"/>
+      <c r="G6" s="52"/>
+      <c r="I6" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A7" s="52"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4559,10 +4783,13 @@
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="104"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A8" s="104"/>
+      <c r="G7" s="52"/>
+      <c r="I7" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A8" s="52"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4580,10 +4807,13 @@
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="104"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A9" s="104"/>
+      <c r="G8" s="52"/>
+      <c r="I8" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A9" s="52"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4601,10 +4831,13 @@
       <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="104"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A10" s="104"/>
+      <c r="G9" s="52"/>
+      <c r="I9" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A10" s="52"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4622,10 +4855,13 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="104"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A11" s="104"/>
+      <c r="G10" s="52"/>
+      <c r="I10" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A11" s="52"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4643,10 +4879,13 @@
       <c r="F11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="104"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A12" s="104"/>
+      <c r="G11" s="52"/>
+      <c r="I11" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A12" s="52"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4664,10 +4903,13 @@
       <c r="F12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="104"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A13" s="104"/>
+      <c r="G12" s="52"/>
+      <c r="I12" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A13" s="52"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4685,10 +4927,13 @@
       <c r="F13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="104"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A14" s="104"/>
+      <c r="G13" s="52"/>
+      <c r="I13" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A14" s="52"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4706,10 +4951,13 @@
       <c r="F14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="104"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A15" s="104"/>
+      <c r="G14" s="52"/>
+      <c r="I14" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A15" s="52"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4727,10 +4975,13 @@
       <c r="F15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="104"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A16" s="104"/>
+      <c r="G15" s="52"/>
+      <c r="I15" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A16" s="52"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4748,10 +4999,13 @@
       <c r="F16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="104"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A17" s="104"/>
+      <c r="G16" s="52"/>
+      <c r="I16" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A17" s="52"/>
       <c r="B17" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4769,10 +5023,13 @@
       <c r="F17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="104"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A18" s="104"/>
+      <c r="G17" s="52"/>
+      <c r="I17" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A18" s="52"/>
       <c r="B18" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4781,19 +5038,22 @@
         <v>79</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E18" s="10">
         <f>IF(D18="YES",0.5,0)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="104"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A19" s="104"/>
+      <c r="G18" s="52"/>
+      <c r="I18" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A19" s="52"/>
       <c r="B19" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4811,10 +5071,13 @@
       <c r="F19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="104"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A20" s="104"/>
+      <c r="G19" s="52"/>
+      <c r="I19" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A20" s="52"/>
       <c r="B20" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4832,10 +5095,13 @@
       <c r="F20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="104"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A21" s="104"/>
+      <c r="G20" s="52"/>
+      <c r="I20" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A21" s="52"/>
       <c r="B21" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4853,10 +5119,13 @@
       <c r="F21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="104"/>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A22" s="104"/>
+      <c r="G21" s="52"/>
+      <c r="I21" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A22" s="52"/>
       <c r="B22" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4874,10 +5143,13 @@
       <c r="F22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="104"/>
-    </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A23" s="104"/>
+      <c r="G22" s="52"/>
+      <c r="I22" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A23" s="52"/>
       <c r="B23" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4895,10 +5167,13 @@
       <c r="F23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="104"/>
-    </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A24" s="104"/>
+      <c r="G23" s="52"/>
+      <c r="I23" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A24" s="52"/>
       <c r="B24" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4916,10 +5191,13 @@
       <c r="F24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="104"/>
-    </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A25" s="104"/>
+      <c r="G24" s="52"/>
+      <c r="I24" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A25" s="52"/>
       <c r="B25" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4937,10 +5215,13 @@
       <c r="F25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="104"/>
-    </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A26" s="104"/>
+      <c r="G25" s="52"/>
+      <c r="I25" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A26" s="52"/>
       <c r="B26" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4958,10 +5239,13 @@
       <c r="F26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="104"/>
-    </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A27" s="104"/>
+      <c r="G26" s="52"/>
+      <c r="I26" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A27" s="52"/>
       <c r="B27" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4979,10 +5263,13 @@
       <c r="F27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="104"/>
-    </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A28" s="104"/>
+      <c r="G27" s="52"/>
+      <c r="I27" s="50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A28" s="52"/>
       <c r="B28" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5000,27 +5287,30 @@
       <c r="F28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="104"/>
-    </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="5" customHeight="1">
-      <c r="A29" s="104"/>
+      <c r="G28" s="52"/>
+      <c r="I28" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="5" customHeight="1">
+      <c r="A29" s="52"/>
       <c r="F29"/>
-      <c r="G29" s="104"/>
-    </row>
-    <row r="30" spans="1:7" s="1" customFormat="1">
-      <c r="A30" s="104"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-    </row>
-    <row r="31" spans="1:7" s="1" customFormat="1">
+      <c r="G29" s="52"/>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1">
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+    </row>
+    <row r="31" spans="1:9" s="1" customFormat="1">
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" s="1" customFormat="1">
+    <row r="32" spans="1:9" s="1" customFormat="1">
       <c r="C32"/>
       <c r="F32"/>
       <c r="G32"/>
@@ -5050,12 +5340,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5097,167 +5387,166 @@
     </row>
     <row r="3" spans="2:16" ht="22" customHeight="1">
       <c r="B3" s="37"/>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="99">
+      <c r="E3" s="59"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="60">
         <f>E10/4</f>
-        <v>5</v>
-      </c>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99">
+        <v>4.75</v>
+      </c>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60">
         <f>E14/2</f>
         <v>3</v>
       </c>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99">
+      <c r="J3" s="60"/>
+      <c r="K3" s="60">
         <f>E17/4</f>
-        <v>2</v>
-      </c>
-      <c r="L3" s="99"/>
-      <c r="M3" s="122">
+        <v>1.875</v>
+      </c>
+      <c r="L3" s="60"/>
+      <c r="M3" s="130">
         <f>E22/3</f>
         <v>3</v>
       </c>
-      <c r="N3" s="123"/>
-      <c r="O3" s="118" t="s">
+      <c r="N3" s="131"/>
+      <c r="O3" s="126" t="s">
         <v>65</v>
       </c>
       <c r="P3" s="38"/>
     </row>
     <row r="4" spans="2:16" ht="22" customHeight="1">
       <c r="B4" s="37"/>
-      <c r="C4" s="94"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="96"/>
-      <c r="G4" s="61" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61" t="s">
+      <c r="H4" s="57"/>
+      <c r="I4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61" t="s">
+      <c r="J4" s="57"/>
+      <c r="K4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="102" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="103"/>
-      <c r="O4" s="119"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="127"/>
       <c r="P4" s="38"/>
     </row>
     <row r="5" spans="2:16" ht="20" customHeight="1">
       <c r="B5" s="37"/>
-      <c r="C5" s="115">
+      <c r="C5" s="124">
         <f>(G5+K5+M5+G6+I6+K6+M7)/O5</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="131" t="s">
+        <v>0.96739130434782605</v>
+      </c>
+      <c r="D5" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="127" t="s">
+      <c r="E5" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="128"/>
-      <c r="G5" s="117">
+      <c r="F5" s="122"/>
+      <c r="G5" s="106">
         <f>G3</f>
-        <v>5</v>
-      </c>
-      <c r="H5" s="117"/>
-      <c r="I5" s="130">
+        <v>4.75</v>
+      </c>
+      <c r="H5" s="106"/>
+      <c r="I5" s="107">
         <v>0</v>
       </c>
-      <c r="J5" s="130"/>
-      <c r="K5" s="117">
+      <c r="J5" s="107"/>
+      <c r="K5" s="106">
         <f>K3</f>
-        <v>2</v>
-      </c>
-      <c r="L5" s="117"/>
-      <c r="M5" s="134">
+        <v>1.875</v>
+      </c>
+      <c r="L5" s="106"/>
+      <c r="M5" s="108">
         <f>M3</f>
         <v>3</v>
       </c>
-      <c r="N5" s="135"/>
-      <c r="O5" s="120">
-        <f>(G5+K5+M5+G6+I6+K6+M7)</f>
+      <c r="N5" s="109"/>
+      <c r="O5" s="128">
         <v>23</v>
       </c>
       <c r="P5" s="38"/>
     </row>
     <row r="6" spans="2:16" ht="20" customHeight="1">
       <c r="B6" s="37"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="127" t="s">
+      <c r="C6" s="124"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="128"/>
-      <c r="G6" s="129">
+      <c r="F6" s="122"/>
+      <c r="G6" s="123">
         <f>G3</f>
-        <v>5</v>
-      </c>
-      <c r="H6" s="129" t="str">
+        <v>4.75</v>
+      </c>
+      <c r="H6" s="123" t="str">
         <f>$D$9</f>
         <v>Dimension</v>
       </c>
-      <c r="I6" s="117">
+      <c r="I6" s="106">
         <f>I3</f>
         <v>3</v>
       </c>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117">
+      <c r="J6" s="106"/>
+      <c r="K6" s="106">
         <f>K3</f>
-        <v>2</v>
-      </c>
-      <c r="L6" s="117"/>
-      <c r="M6" s="136">
+        <v>1.875</v>
+      </c>
+      <c r="L6" s="106"/>
+      <c r="M6" s="110">
         <v>0</v>
       </c>
-      <c r="N6" s="137"/>
-      <c r="O6" s="120"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="128"/>
       <c r="P6" s="38"/>
     </row>
     <row r="7" spans="2:16" ht="20" customHeight="1" thickBot="1">
       <c r="B7" s="37"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="127" t="s">
+      <c r="C7" s="125"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="128"/>
-      <c r="G7" s="130">
+      <c r="F7" s="122"/>
+      <c r="G7" s="107">
         <v>0</v>
       </c>
-      <c r="H7" s="130">
+      <c r="H7" s="107">
         <v>0</v>
       </c>
-      <c r="I7" s="130">
+      <c r="I7" s="107">
         <v>0</v>
       </c>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130">
+      <c r="J7" s="107"/>
+      <c r="K7" s="107">
         <v>0</v>
       </c>
-      <c r="L7" s="130"/>
-      <c r="M7" s="134">
+      <c r="L7" s="107"/>
+      <c r="M7" s="108">
         <f>M3</f>
         <v>3</v>
       </c>
-      <c r="N7" s="135"/>
-      <c r="O7" s="121"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="129"/>
       <c r="P7" s="38"/>
     </row>
     <row r="8" spans="2:16">
@@ -5306,15 +5595,15 @@
     </row>
     <row r="10" spans="2:16" ht="20" customHeight="1">
       <c r="B10" s="37"/>
-      <c r="C10" s="109">
+      <c r="C10" s="137">
         <v>20</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="112">
+      <c r="E10" s="118">
         <f>G10+G11+G12+I11+I12</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>9</v>
@@ -5335,17 +5624,17 @@
     </row>
     <row r="11" spans="2:16" ht="36" customHeight="1">
       <c r="B11" s="37"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="117" t="s">
+      <c r="C11" s="137"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="106" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="14">
         <f>Providers_Survey!E5+Providers_Survey!E6+Providers_Survey!E7+Providers_Survey!E8</f>
         <v>1</v>
       </c>
-      <c r="H11" s="117" t="s">
+      <c r="H11" s="106" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="14">
@@ -5362,18 +5651,18 @@
     </row>
     <row r="12" spans="2:16" ht="25" customHeight="1">
       <c r="B12" s="37"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="117"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="106"/>
       <c r="G12" s="48">
         <f>I11+I12</f>
-        <v>9</v>
-      </c>
-      <c r="H12" s="117"/>
+        <v>8.5</v>
+      </c>
+      <c r="H12" s="106"/>
       <c r="I12" s="48">
         <f>G14+G15+G17+G18+G19</f>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J12" s="26"/>
       <c r="K12" s="25"/>
@@ -5402,24 +5691,24 @@
     </row>
     <row r="14" spans="2:16" ht="20" customHeight="1">
       <c r="B14" s="37"/>
-      <c r="C14" s="109">
+      <c r="C14" s="137">
         <v>6</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="112">
+      <c r="E14" s="118">
         <f>G14+G15+I14+I15+K15</f>
         <v>6</v>
       </c>
-      <c r="F14" s="117" t="s">
+      <c r="F14" s="106" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="14">
         <f>Providers_Survey!E10</f>
         <v>1</v>
       </c>
-      <c r="H14" s="117" t="s">
+      <c r="H14" s="106" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="14">
@@ -5436,15 +5725,15 @@
     </row>
     <row r="15" spans="2:16" ht="34" customHeight="1">
       <c r="B15" s="37"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="117"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="106"/>
       <c r="G15" s="48">
         <f>I14+I15</f>
         <v>2</v>
       </c>
-      <c r="H15" s="117"/>
+      <c r="H15" s="106"/>
       <c r="I15" s="48">
         <f>K15</f>
         <v>1</v>
@@ -5481,15 +5770,15 @@
     </row>
     <row r="17" spans="2:16" ht="20" customHeight="1">
       <c r="B17" s="37"/>
-      <c r="C17" s="109">
+      <c r="C17" s="137">
         <v>8</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="112">
+      <c r="E17" s="118">
         <f>G17+G18+G19+I19+M19+M20</f>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>15</v>
@@ -5510,15 +5799,15 @@
     </row>
     <row r="18" spans="2:16" ht="20" customHeight="1">
       <c r="B18" s="37"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="107" t="s">
+      <c r="C18" s="137"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="115" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="14">
         <f>Providers_Survey!E18+Providers_Survey!E19</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="13"/>
@@ -5532,28 +5821,28 @@
     </row>
     <row r="19" spans="2:16" ht="20" customHeight="1">
       <c r="B19" s="37"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="73">
+      <c r="C19" s="137"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="96">
         <f>I19+M19+M20</f>
         <v>3</v>
       </c>
-      <c r="H19" s="124" t="s">
+      <c r="H19" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="107">
+      <c r="I19" s="115">
         <f>Providers_Survey!E20+Providers_Survey!E21</f>
         <v>1</v>
       </c>
-      <c r="J19" s="126" t="s">
+      <c r="J19" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="117" t="s">
+      <c r="K19" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="117"/>
+      <c r="L19" s="106"/>
       <c r="M19" s="14">
         <f>Providers_Survey!E22</f>
         <v>1</v>
@@ -5564,18 +5853,18 @@
     </row>
     <row r="20" spans="2:16" ht="20" customHeight="1">
       <c r="B20" s="37"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="117" t="s">
+      <c r="C20" s="137"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="117"/>
+      <c r="L20" s="106"/>
       <c r="M20" s="14">
         <f>Providers_Survey!E23</f>
         <v>1</v>
@@ -5603,17 +5892,17 @@
     </row>
     <row r="22" spans="2:16" ht="20" customHeight="1">
       <c r="B22" s="37"/>
-      <c r="C22" s="109">
+      <c r="C22" s="137">
         <v>9</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="112">
+      <c r="E22" s="118">
         <f>G23+G22+I22+I23+I24+I25</f>
         <v>9</v>
       </c>
-      <c r="F22" s="107" t="s">
+      <c r="F22" s="115" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="14">
@@ -5637,11 +5926,11 @@
     </row>
     <row r="23" spans="2:16" ht="20" customHeight="1">
       <c r="B23" s="37"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="73">
+      <c r="C23" s="137"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="96">
         <f>I22+I23+I24+I25</f>
         <v>4</v>
       </c>
@@ -5662,11 +5951,11 @@
     </row>
     <row r="24" spans="2:16" ht="20" customHeight="1">
       <c r="B24" s="37"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="111"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="138"/>
       <c r="H24" s="12" t="s">
         <v>21</v>
       </c>
@@ -5684,11 +5973,11 @@
     </row>
     <row r="25" spans="2:16" ht="20" customHeight="1">
       <c r="B25" s="37"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="74"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="97"/>
       <c r="H25" s="12" t="s">
         <v>22</v>
       </c>
@@ -5729,11 +6018,11 @@
       <c r="D27" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="105">
+      <c r="E27" s="135">
         <f>G10+G17+G22+I24+I25+M7</f>
         <v>8</v>
       </c>
-      <c r="F27" s="106"/>
+      <c r="F27" s="136"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
@@ -5764,14 +6053,38 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="F18:F20"/>
     <mergeCell ref="G4:H4"/>
@@ -5788,38 +6101,14 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <conditionalFormatting sqref="G10">
     <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">

--- a/Suveys/e-s1_User_Surveys_n_results.xlsx
+++ b/Suveys/e-s1_User_Surveys_n_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="580" windowWidth="25040" windowHeight="14960" tabRatio="704" activeTab="2"/>
+    <workbookView xWindow="560" yWindow="500" windowWidth="25040" windowHeight="14960" tabRatio="704" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Model_User_View" sheetId="20" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="97">
   <si>
     <t>ACCESSIBILITY</t>
   </si>
@@ -310,10 +310,10 @@
     <t>Does service provider take responsibility for any problems caused by serivce interactions with external third parties?</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>6.5</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
@@ -873,7 +873,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="418">
+  <cellStyleXfs count="450">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1292,8 +1292,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1682,8 +1714,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="418">
+  <cellStyles count="450">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1892,6 +1925,22 @@
     <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2100,6 +2149,22 @@
     <cellStyle name="Hyperlink" xfId="412" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="432" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="436" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="438" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="440" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="442" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="444" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="446" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="448" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="359" builtinId="5"/>
   </cellStyles>
@@ -2769,6 +2834,505 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Quality</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> in Use</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>95.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2101880232"/>
+        <c:axId val="2129350616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2101880232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Surveys</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2129350616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2129350616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Quality</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> level</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2101880232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3094,7 +3658,7 @@
   <dimension ref="B1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3156,7 +3720,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="60">
         <f>E17/4</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L3" s="60"/>
       <c r="M3" s="61">
@@ -3202,7 +3766,7 @@
       <c r="B5" s="23"/>
       <c r="C5" s="81">
         <f>(G5+K5+G6+K6+M7+I5)/O5</f>
-        <v>0.95</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="D5" s="65" t="s">
         <v>24</v>
@@ -3223,7 +3787,7 @@
       <c r="J5" s="71"/>
       <c r="K5" s="70">
         <f>K3</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L5" s="70"/>
       <c r="M5" s="72">
@@ -3257,7 +3821,7 @@
       <c r="J6" s="78"/>
       <c r="K6" s="70">
         <f>K3</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L6" s="70"/>
       <c r="M6" s="79">
@@ -3387,7 +3951,7 @@
       </c>
       <c r="I11" s="45">
         <f>Users_Survey!E8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="26"/>
       <c r="K11" s="25"/>
@@ -3410,7 +3974,7 @@
       <c r="H12" s="70"/>
       <c r="I12" s="46">
         <f>G14+G15+G17+G18+G19</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" s="26"/>
       <c r="K12" s="25"/>
@@ -3526,7 +4090,7 @@
       </c>
       <c r="E17" s="87">
         <f>G17+G18+G19+I19+M19+M20</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>15</v>
@@ -3555,7 +4119,7 @@
       </c>
       <c r="G18" s="45">
         <f>Users_Survey!E13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="13"/>
@@ -4006,7 +4570,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4165,11 +4729,11 @@
         <v>84</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="E8" s="10">
         <f>IF(D8="NO",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>11</v>
@@ -4285,11 +4849,11 @@
         <v>70</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E13" s="10">
         <f>IF(D13="YES",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
@@ -4552,81 +5116,492 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
+        <f>A1+1</f>
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
+        <f t="shared" ref="A3:A50" si="0">A2+1</f>
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B8">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>95</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>88</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B15">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="D15">
+        <f>AVERAGE(D9:D13)</f>
+        <v>7.666666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B22" s="142">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B32">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B33">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B34">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B35">
         <v>100</v>
       </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B49">
         <v>71</v>
       </c>
-      <c r="C10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B50">
         <v>95</v>
       </c>
-      <c r="C11">
-        <v>8</v>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="B51">
+        <f>AVERAGE(B1:B50)</f>
+        <v>88.44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4640,7 +5615,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5344,7 +6319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
